--- a/data/1/МВС/!печать/Д/МВС 2023.xlsx
+++ b/data/1/МВС/!печать/Д/МВС 2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Студенческие\2023-24\МВС\!печать\Д\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwlo\zachetker\data-sharer\data\1\МВС\!печать\Д\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ACA21A-845E-48E8-8996-3DF775E5E841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1DAF7B-D94C-4C92-8FD2-CD52B46FC46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Дневное" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Дневное!$A$1:$K$1</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="883">
   <si>
     <t>N_ZACHET</t>
   </si>
@@ -3114,26 +3125,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+    <sheetView topLeftCell="A187" workbookViewId="0">
       <selection activeCell="K204" sqref="K204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" style="2" customWidth="1"/>
     <col min="10" max="10" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>1</v>
       </c>
@@ -3159,7 +3170,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="8" t="s">
@@ -3188,7 +3199,7 @@
       </c>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="8" t="s">
@@ -3217,7 +3228,7 @@
       </c>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="8" t="s">
@@ -3246,7 +3257,7 @@
       </c>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="8" t="s">
@@ -3275,7 +3286,7 @@
       </c>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="8" t="s">
@@ -3304,7 +3315,7 @@
       </c>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="8" t="s">
@@ -3333,7 +3344,7 @@
       </c>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="8" t="s">
@@ -3362,7 +3373,7 @@
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="8" t="s">
@@ -3391,7 +3402,7 @@
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="8" t="s">
@@ -3420,7 +3431,7 @@
       </c>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="8" t="s">
@@ -3449,7 +3460,7 @@
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="8" t="s">
@@ -3478,7 +3489,7 @@
       </c>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8" t="s">
@@ -3507,7 +3518,7 @@
       </c>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="8" t="s">
@@ -3536,7 +3547,7 @@
       </c>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="8" t="s">
@@ -3565,7 +3576,7 @@
       </c>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="8" t="s">
@@ -3594,7 +3605,7 @@
       </c>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="8" t="s">
@@ -3623,7 +3634,7 @@
       </c>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="8" t="s">
@@ -3652,7 +3663,7 @@
       </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="8" t="s">
@@ -3681,7 +3692,7 @@
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="8" t="s">
@@ -3710,7 +3721,7 @@
       </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="8" t="s">
@@ -3739,7 +3750,7 @@
       </c>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="8" t="s">
@@ -3768,7 +3779,7 @@
       </c>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="8" t="s">
@@ -3797,7 +3808,7 @@
       </c>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="8" t="s">
@@ -3826,7 +3837,7 @@
       </c>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="8" t="s">
@@ -3855,7 +3866,7 @@
       </c>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="8" t="s">
@@ -3884,7 +3895,7 @@
       </c>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="8" t="s">
@@ -3913,7 +3924,7 @@
       </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="8" t="s">
@@ -3942,7 +3953,7 @@
       </c>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="8" t="s">
@@ -3971,7 +3982,7 @@
       </c>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="8" t="s">
@@ -4000,7 +4011,7 @@
       </c>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="8" t="s">
@@ -4029,7 +4040,7 @@
       </c>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="8" t="s">
@@ -4058,7 +4069,7 @@
       </c>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
       <c r="C33" s="8" t="s">
@@ -4087,7 +4098,7 @@
       </c>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="8" t="s">
@@ -4116,7 +4127,7 @@
       </c>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="8" t="s">
@@ -4145,7 +4156,7 @@
       </c>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="8" t="s">
@@ -4174,7 +4185,7 @@
       </c>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="8" t="s">
@@ -4203,7 +4214,7 @@
       </c>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
       <c r="C38" s="8" t="s">
@@ -4232,7 +4243,7 @@
       </c>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
       <c r="C39" s="8" t="s">
@@ -4261,7 +4272,7 @@
       </c>
       <c r="K39" s="5"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
       <c r="C40" s="8" t="s">
@@ -4290,7 +4301,7 @@
       </c>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="B41" s="9"/>
       <c r="C41" s="8" t="s">
@@ -4319,7 +4330,7 @@
       </c>
       <c r="K41" s="5"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="9"/>
       <c r="C42" s="8" t="s">
@@ -4348,7 +4359,7 @@
       </c>
       <c r="K42" s="5"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="9"/>
       <c r="C43" s="8" t="s">
@@ -4377,7 +4388,7 @@
       </c>
       <c r="K43" s="5"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="9"/>
       <c r="C44" s="8" t="s">
@@ -4406,7 +4417,7 @@
       </c>
       <c r="K44" s="5"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="9"/>
       <c r="C45" s="8" t="s">
@@ -4435,7 +4446,7 @@
       </c>
       <c r="K45" s="5"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="B46" s="9"/>
       <c r="C46" s="8" t="s">
@@ -4464,7 +4475,7 @@
       </c>
       <c r="K46" s="5"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
       <c r="B47" s="9"/>
       <c r="C47" s="8" t="s">
@@ -4493,7 +4504,7 @@
       </c>
       <c r="K47" s="5"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
       <c r="B48" s="9"/>
       <c r="C48" s="8" t="s">
@@ -4522,7 +4533,7 @@
       </c>
       <c r="K48" s="5"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="B49" s="9"/>
       <c r="C49" s="8" t="s">
@@ -4551,7 +4562,7 @@
       </c>
       <c r="K49" s="5"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
       <c r="C50" s="8" t="s">
@@ -4580,7 +4591,7 @@
       </c>
       <c r="K50" s="5"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" s="9"/>
       <c r="C51" s="8" t="s">
@@ -4609,7 +4620,7 @@
       </c>
       <c r="K51" s="5"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
       <c r="B52" s="9"/>
       <c r="C52" s="8" t="s">
@@ -4638,7 +4649,7 @@
       </c>
       <c r="K52" s="5"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="B53" s="9"/>
       <c r="C53" s="8" t="s">
@@ -4667,7 +4678,7 @@
       </c>
       <c r="K53" s="5"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
       <c r="B54" s="9"/>
       <c r="C54" s="8" t="s">
@@ -4696,7 +4707,7 @@
       </c>
       <c r="K54" s="5"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
       <c r="B55" s="9"/>
       <c r="C55" s="8" t="s">
@@ -4725,7 +4736,7 @@
       </c>
       <c r="K55" s="5"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="9"/>
       <c r="C56" s="8" t="s">
@@ -4754,7 +4765,7 @@
       </c>
       <c r="K56" s="5"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="B57" s="9"/>
       <c r="C57" s="8" t="s">
@@ -4783,7 +4794,7 @@
       </c>
       <c r="K57" s="5"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="B58" s="9"/>
       <c r="C58" s="8" t="s">
@@ -4812,7 +4823,7 @@
       </c>
       <c r="K58" s="5"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="8"/>
       <c r="B59" s="9"/>
       <c r="C59" s="8" t="s">
@@ -4841,7 +4852,7 @@
       </c>
       <c r="K59" s="5"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
       <c r="B60" s="9"/>
       <c r="C60" s="8" t="s">
@@ -4870,7 +4881,7 @@
       </c>
       <c r="K60" s="5"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
       <c r="B61" s="9"/>
       <c r="C61" s="8" t="s">
@@ -4899,7 +4910,7 @@
       </c>
       <c r="K61" s="5"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
       <c r="B62" s="9"/>
       <c r="C62" s="8" t="s">
@@ -4928,7 +4939,7 @@
       </c>
       <c r="K62" s="5"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="8"/>
       <c r="B63" s="9"/>
       <c r="C63" s="8" t="s">
@@ -4957,7 +4968,7 @@
       </c>
       <c r="K63" s="5"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="8"/>
       <c r="B64" s="9"/>
       <c r="C64" s="8" t="s">
@@ -4986,7 +4997,7 @@
       </c>
       <c r="K64" s="5"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="8"/>
       <c r="B65" s="9"/>
       <c r="C65" s="8" t="s">
@@ -5015,7 +5026,7 @@
       </c>
       <c r="K65" s="5"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="8"/>
       <c r="B66" s="9"/>
       <c r="C66" s="8" t="s">
@@ -5044,7 +5055,7 @@
       </c>
       <c r="K66" s="5"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="8"/>
       <c r="B67" s="9"/>
       <c r="C67" s="8" t="s">
@@ -5073,7 +5084,7 @@
       </c>
       <c r="K67" s="5"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="8"/>
       <c r="B68" s="9"/>
       <c r="C68" s="8" t="s">
@@ -5102,7 +5113,7 @@
       </c>
       <c r="K68" s="5"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="8"/>
       <c r="B69" s="9"/>
       <c r="C69" s="8" t="s">
@@ -5131,7 +5142,7 @@
       </c>
       <c r="K69" s="5"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="8"/>
       <c r="B70" s="9"/>
       <c r="C70" s="8" t="s">
@@ -5160,7 +5171,7 @@
       </c>
       <c r="K70" s="5"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="8"/>
       <c r="B71" s="9"/>
       <c r="C71" s="8" t="s">
@@ -5189,7 +5200,7 @@
       </c>
       <c r="K71" s="5"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="8"/>
       <c r="B72" s="9"/>
       <c r="C72" s="8" t="s">
@@ -5218,7 +5229,7 @@
       </c>
       <c r="K72" s="5"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="8"/>
       <c r="B73" s="9"/>
       <c r="C73" s="8" t="s">
@@ -5247,7 +5258,7 @@
       </c>
       <c r="K73" s="5"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="8"/>
       <c r="B74" s="9"/>
       <c r="C74" s="8" t="s">
@@ -5276,7 +5287,7 @@
       </c>
       <c r="K74" s="5"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="8"/>
       <c r="B75" s="9"/>
       <c r="C75" s="8" t="s">
@@ -5305,7 +5316,7 @@
       </c>
       <c r="K75" s="5"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="8"/>
       <c r="B76" s="9"/>
       <c r="C76" s="8" t="s">
@@ -5334,7 +5345,7 @@
       </c>
       <c r="K76" s="5"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="8"/>
       <c r="B77" s="9"/>
       <c r="C77" s="8" t="s">
@@ -5363,7 +5374,7 @@
       </c>
       <c r="K77" s="5"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="8"/>
       <c r="B78" s="9"/>
       <c r="C78" s="8" t="s">
@@ -5392,7 +5403,7 @@
       </c>
       <c r="K78" s="5"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="8"/>
       <c r="B79" s="9"/>
       <c r="C79" s="8" t="s">
@@ -5421,7 +5432,7 @@
       </c>
       <c r="K79" s="5"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="8"/>
       <c r="B80" s="9"/>
       <c r="C80" s="8" t="s">
@@ -5450,7 +5461,7 @@
       </c>
       <c r="K80" s="5"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="8"/>
       <c r="B81" s="9"/>
       <c r="C81" s="8" t="s">
@@ -5479,7 +5490,7 @@
       </c>
       <c r="K81" s="5"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="8"/>
       <c r="B82" s="9"/>
       <c r="C82" s="8" t="s">
@@ -5508,7 +5519,7 @@
       </c>
       <c r="K82" s="5"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="8"/>
       <c r="B83" s="9"/>
       <c r="C83" s="8" t="s">
@@ -5537,7 +5548,7 @@
       </c>
       <c r="K83" s="5"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="8"/>
       <c r="B84" s="9"/>
       <c r="C84" s="8" t="s">
@@ -5566,7 +5577,7 @@
       </c>
       <c r="K84" s="5"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="8"/>
       <c r="B85" s="9"/>
       <c r="C85" s="8" t="s">
@@ -5595,7 +5606,7 @@
       </c>
       <c r="K85" s="5"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="8"/>
       <c r="B86" s="9"/>
       <c r="C86" s="8" t="s">
@@ -5624,7 +5635,7 @@
       </c>
       <c r="K86" s="5"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="8"/>
       <c r="B87" s="9"/>
       <c r="C87" s="8" t="s">
@@ -5653,7 +5664,7 @@
       </c>
       <c r="K87" s="5"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="8"/>
       <c r="B88" s="9"/>
       <c r="C88" s="8" t="s">
@@ -5682,7 +5693,7 @@
       </c>
       <c r="K88" s="5"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="8"/>
       <c r="B89" s="9"/>
       <c r="C89" s="8" t="s">
@@ -5711,7 +5722,7 @@
       </c>
       <c r="K89" s="5"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="8"/>
       <c r="B90" s="9"/>
       <c r="C90" s="8" t="s">
@@ -5740,7 +5751,7 @@
       </c>
       <c r="K90" s="5"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="8"/>
       <c r="B91" s="9"/>
       <c r="C91" s="8" t="s">
@@ -5769,7 +5780,7 @@
       </c>
       <c r="K91" s="5"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="8"/>
       <c r="B92" s="9"/>
       <c r="C92" s="8" t="s">
@@ -5798,7 +5809,7 @@
       </c>
       <c r="K92" s="5"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="8"/>
       <c r="B93" s="9"/>
       <c r="C93" s="8" t="s">
@@ -5827,7 +5838,7 @@
       </c>
       <c r="K93" s="5"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="8"/>
       <c r="B94" s="9"/>
       <c r="C94" s="8" t="s">
@@ -5856,7 +5867,7 @@
       </c>
       <c r="K94" s="5"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="8"/>
       <c r="B95" s="9"/>
       <c r="C95" s="8" t="s">
@@ -5885,7 +5896,7 @@
       </c>
       <c r="K95" s="5"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="8"/>
       <c r="B96" s="9"/>
       <c r="C96" s="8" t="s">
@@ -5914,7 +5925,7 @@
       </c>
       <c r="K96" s="5"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="8"/>
       <c r="B97" s="9"/>
       <c r="C97" s="8" t="s">
@@ -5943,7 +5954,7 @@
       </c>
       <c r="K97" s="5"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="8"/>
       <c r="B98" s="9"/>
       <c r="C98" s="8" t="s">
@@ -5972,7 +5983,7 @@
       </c>
       <c r="K98" s="5"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="8"/>
       <c r="B99" s="9"/>
       <c r="C99" s="8" t="s">
@@ -6001,7 +6012,7 @@
       </c>
       <c r="K99" s="5"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="8"/>
       <c r="B100" s="9"/>
       <c r="C100" s="8" t="s">
@@ -6030,7 +6041,7 @@
       </c>
       <c r="K100" s="5"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="8"/>
       <c r="B101" s="9"/>
       <c r="C101" s="8" t="s">
@@ -6059,7 +6070,7 @@
       </c>
       <c r="K101" s="5"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="8"/>
       <c r="B102" s="9"/>
       <c r="C102" s="8" t="s">
@@ -6088,7 +6099,7 @@
       </c>
       <c r="K102" s="5"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="8"/>
       <c r="B103" s="9"/>
       <c r="C103" s="8" t="s">
@@ -6117,7 +6128,7 @@
       </c>
       <c r="K103" s="5"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="8"/>
       <c r="B104" s="9"/>
       <c r="C104" s="8" t="s">
@@ -6146,7 +6157,7 @@
       </c>
       <c r="K104" s="5"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="8"/>
       <c r="B105" s="9"/>
       <c r="C105" s="8" t="s">
@@ -6175,7 +6186,7 @@
       </c>
       <c r="K105" s="5"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="8"/>
       <c r="B106" s="9"/>
       <c r="C106" s="8" t="s">
@@ -6204,7 +6215,7 @@
       </c>
       <c r="K106" s="5"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="8"/>
       <c r="B107" s="9"/>
       <c r="C107" s="8" t="s">
@@ -6233,7 +6244,7 @@
       </c>
       <c r="K107" s="5"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="8"/>
       <c r="B108" s="9"/>
       <c r="C108" s="8" t="s">
@@ -6262,7 +6273,7 @@
       </c>
       <c r="K108" s="5"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="8"/>
       <c r="B109" s="9"/>
       <c r="C109" s="8" t="s">
@@ -6291,7 +6302,7 @@
       </c>
       <c r="K109" s="5"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="8"/>
       <c r="B110" s="9"/>
       <c r="C110" s="8" t="s">
@@ -6320,7 +6331,7 @@
       </c>
       <c r="K110" s="5"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="8"/>
       <c r="B111" s="9"/>
       <c r="C111" s="8" t="s">
@@ -6349,7 +6360,7 @@
       </c>
       <c r="K111" s="5"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="8"/>
       <c r="B112" s="9"/>
       <c r="C112" s="8" t="s">
@@ -6378,7 +6389,7 @@
       </c>
       <c r="K112" s="5"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="8"/>
       <c r="B113" s="9"/>
       <c r="C113" s="8" t="s">
@@ -6407,7 +6418,7 @@
       </c>
       <c r="K113" s="5"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="8"/>
       <c r="B114" s="9"/>
       <c r="C114" s="8" t="s">
@@ -6436,7 +6447,7 @@
       </c>
       <c r="K114" s="5"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="8"/>
       <c r="B115" s="9"/>
       <c r="C115" s="8" t="s">
@@ -6465,7 +6476,7 @@
       </c>
       <c r="K115" s="5"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="8"/>
       <c r="B116" s="9"/>
       <c r="C116" s="8" t="s">
@@ -6494,7 +6505,7 @@
       </c>
       <c r="K116" s="5"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="8"/>
       <c r="B117" s="9"/>
       <c r="C117" s="8" t="s">
@@ -6523,7 +6534,7 @@
       </c>
       <c r="K117" s="5"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="8"/>
       <c r="B118" s="9"/>
       <c r="C118" s="8" t="s">
@@ -6552,7 +6563,7 @@
       </c>
       <c r="K118" s="5"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="8"/>
       <c r="B119" s="9"/>
       <c r="C119" s="8" t="s">
@@ -6581,7 +6592,7 @@
       </c>
       <c r="K119" s="5"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="8"/>
       <c r="B120" s="9"/>
       <c r="C120" s="8" t="s">
@@ -6610,7 +6621,7 @@
       </c>
       <c r="K120" s="5"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="8"/>
       <c r="B121" s="9"/>
       <c r="C121" s="8" t="s">
@@ -6639,7 +6650,7 @@
       </c>
       <c r="K121" s="5"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="8"/>
       <c r="B122" s="9"/>
       <c r="C122" s="8" t="s">
@@ -6668,7 +6679,7 @@
       </c>
       <c r="K122" s="5"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="8"/>
       <c r="B123" s="9"/>
       <c r="C123" s="8" t="s">
@@ -6697,7 +6708,7 @@
       </c>
       <c r="K123" s="5"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="8"/>
       <c r="B124" s="9"/>
       <c r="C124" s="8" t="s">
@@ -6726,7 +6737,7 @@
       </c>
       <c r="K124" s="5"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="8"/>
       <c r="B125" s="9"/>
       <c r="C125" s="8" t="s">
@@ -6755,7 +6766,7 @@
       </c>
       <c r="K125" s="5"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="8"/>
       <c r="B126" s="9"/>
       <c r="C126" s="8" t="s">
@@ -6784,7 +6795,7 @@
       </c>
       <c r="K126" s="5"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="8"/>
       <c r="B127" s="9"/>
       <c r="C127" s="8" t="s">
@@ -6813,7 +6824,7 @@
       </c>
       <c r="K127" s="5"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="8"/>
       <c r="B128" s="9"/>
       <c r="C128" s="8" t="s">
@@ -6842,7 +6853,7 @@
       </c>
       <c r="K128" s="5"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="8"/>
       <c r="B129" s="9"/>
       <c r="C129" s="8" t="s">
@@ -6871,7 +6882,7 @@
       </c>
       <c r="K129" s="5"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="8"/>
       <c r="B130" s="9"/>
       <c r="C130" s="8" t="s">
@@ -6900,7 +6911,7 @@
       </c>
       <c r="K130" s="5"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="8"/>
       <c r="B131" s="9"/>
       <c r="C131" s="8" t="s">
@@ -6929,7 +6940,7 @@
       </c>
       <c r="K131" s="5"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="8"/>
       <c r="B132" s="9"/>
       <c r="C132" s="8" t="s">
@@ -6958,7 +6969,7 @@
       </c>
       <c r="K132" s="5"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="8"/>
       <c r="B133" s="9"/>
       <c r="C133" s="8" t="s">
@@ -6987,7 +6998,7 @@
       </c>
       <c r="K133" s="5"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="8"/>
       <c r="B134" s="9"/>
       <c r="C134" s="8" t="s">
@@ -7016,7 +7027,7 @@
       </c>
       <c r="K134" s="5"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="8"/>
       <c r="B135" s="9"/>
       <c r="C135" s="8" t="s">
@@ -7045,7 +7056,7 @@
       </c>
       <c r="K135" s="5"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="8"/>
       <c r="B136" s="9"/>
       <c r="C136" s="8" t="s">
@@ -7074,7 +7085,7 @@
       </c>
       <c r="K136" s="5"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="8"/>
       <c r="B137" s="9"/>
       <c r="C137" s="8" t="s">
@@ -7103,7 +7114,7 @@
       </c>
       <c r="K137" s="5"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="8"/>
       <c r="B138" s="9"/>
       <c r="C138" s="8" t="s">
@@ -7132,7 +7143,7 @@
       </c>
       <c r="K138" s="5"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="8"/>
       <c r="B139" s="9"/>
       <c r="C139" s="8" t="s">
@@ -7161,7 +7172,7 @@
       </c>
       <c r="K139" s="5"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="8"/>
       <c r="B140" s="9"/>
       <c r="C140" s="8" t="s">
@@ -7190,7 +7201,7 @@
       </c>
       <c r="K140" s="5"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="8"/>
       <c r="B141" s="9"/>
       <c r="C141" s="8" t="s">
@@ -7219,7 +7230,7 @@
       </c>
       <c r="K141" s="5"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="8"/>
       <c r="B142" s="9"/>
       <c r="C142" s="8" t="s">
@@ -7248,7 +7259,7 @@
       </c>
       <c r="K142" s="5"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="8"/>
       <c r="B143" s="9"/>
       <c r="C143" s="8" t="s">
@@ -7277,7 +7288,7 @@
       </c>
       <c r="K143" s="5"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="8"/>
       <c r="B144" s="9"/>
       <c r="C144" s="8" t="s">
@@ -7306,7 +7317,7 @@
       </c>
       <c r="K144" s="5"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="8"/>
       <c r="B145" s="9"/>
       <c r="C145" s="8" t="s">
@@ -7335,7 +7346,7 @@
       </c>
       <c r="K145" s="5"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="8"/>
       <c r="B146" s="9"/>
       <c r="C146" s="8" t="s">
@@ -7364,7 +7375,7 @@
       </c>
       <c r="K146" s="5"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="8"/>
       <c r="B147" s="9"/>
       <c r="C147" s="8" t="s">
@@ -7393,7 +7404,7 @@
       </c>
       <c r="K147" s="5"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="8"/>
       <c r="B148" s="9"/>
       <c r="C148" s="8" t="s">
@@ -7422,7 +7433,7 @@
       </c>
       <c r="K148" s="5"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="8"/>
       <c r="B149" s="9"/>
       <c r="C149" s="8" t="s">
@@ -7451,7 +7462,7 @@
       </c>
       <c r="K149" s="5"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="8"/>
       <c r="B150" s="9"/>
       <c r="C150" s="8" t="s">
@@ -7480,7 +7491,7 @@
       </c>
       <c r="K150" s="5"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="8"/>
       <c r="B151" s="9"/>
       <c r="C151" s="8" t="s">
@@ -7509,7 +7520,7 @@
       </c>
       <c r="K151" s="5"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="8"/>
       <c r="B152" s="9"/>
       <c r="C152" s="8" t="s">
@@ -7538,7 +7549,7 @@
       </c>
       <c r="K152" s="5"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="8"/>
       <c r="B153" s="9"/>
       <c r="C153" s="8" t="s">
@@ -7567,7 +7578,7 @@
       </c>
       <c r="K153" s="5"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="8"/>
       <c r="B154" s="9"/>
       <c r="C154" s="8" t="s">
@@ -7596,7 +7607,7 @@
       </c>
       <c r="K154" s="5"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="8"/>
       <c r="B155" s="9"/>
       <c r="C155" s="8" t="s">
@@ -7625,7 +7636,7 @@
       </c>
       <c r="K155" s="5"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="8"/>
       <c r="B156" s="9"/>
       <c r="C156" s="8" t="s">
@@ -7654,7 +7665,7 @@
       </c>
       <c r="K156" s="5"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="8"/>
       <c r="B157" s="9"/>
       <c r="C157" s="8" t="s">
@@ -7683,7 +7694,7 @@
       </c>
       <c r="K157" s="5"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="8"/>
       <c r="B158" s="9"/>
       <c r="C158" s="8" t="s">
@@ -7712,7 +7723,7 @@
       </c>
       <c r="K158" s="5"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="8"/>
       <c r="B159" s="9"/>
       <c r="C159" s="8" t="s">
@@ -7741,7 +7752,7 @@
       </c>
       <c r="K159" s="5"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="8"/>
       <c r="B160" s="9"/>
       <c r="C160" s="8" t="s">
@@ -7770,7 +7781,7 @@
       </c>
       <c r="K160" s="5"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="8"/>
       <c r="B161" s="9"/>
       <c r="C161" s="8" t="s">
@@ -7799,7 +7810,7 @@
       </c>
       <c r="K161" s="5"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="8"/>
       <c r="B162" s="9"/>
       <c r="C162" s="8" t="s">
@@ -7828,7 +7839,7 @@
       </c>
       <c r="K162" s="5"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="8"/>
       <c r="B163" s="9"/>
       <c r="C163" s="8" t="s">
@@ -7857,7 +7868,7 @@
       </c>
       <c r="K163" s="5"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="8"/>
       <c r="B164" s="9"/>
       <c r="C164" s="8" t="s">
@@ -7886,7 +7897,7 @@
       </c>
       <c r="K164" s="5"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="8"/>
       <c r="B165" s="9"/>
       <c r="C165" s="8" t="s">
@@ -7915,7 +7926,7 @@
       </c>
       <c r="K165" s="5"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="8"/>
       <c r="B166" s="9"/>
       <c r="C166" s="8" t="s">
@@ -7944,7 +7955,7 @@
       </c>
       <c r="K166" s="5"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="8"/>
       <c r="B167" s="9"/>
       <c r="C167" s="8" t="s">
@@ -7973,7 +7984,7 @@
       </c>
       <c r="K167" s="5"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="8"/>
       <c r="B168" s="9"/>
       <c r="C168" s="8" t="s">
@@ -8002,7 +8013,7 @@
       </c>
       <c r="K168" s="5"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="8"/>
       <c r="B169" s="9"/>
       <c r="C169" s="8" t="s">
@@ -8031,7 +8042,7 @@
       </c>
       <c r="K169" s="5"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="8"/>
       <c r="B170" s="9"/>
       <c r="C170" s="8" t="s">
@@ -8060,7 +8071,7 @@
       </c>
       <c r="K170" s="5"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="8"/>
       <c r="B171" s="9"/>
       <c r="C171" s="8" t="s">
@@ -8089,7 +8100,7 @@
       </c>
       <c r="K171" s="5"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="8"/>
       <c r="B172" s="9"/>
       <c r="C172" s="8" t="s">
@@ -8118,7 +8129,7 @@
       </c>
       <c r="K172" s="5"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="8"/>
       <c r="B173" s="9"/>
       <c r="C173" s="8" t="s">
@@ -8147,7 +8158,7 @@
       </c>
       <c r="K173" s="5"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="8"/>
       <c r="B174" s="9"/>
       <c r="C174" s="8" t="s">
@@ -8176,7 +8187,7 @@
       </c>
       <c r="K174" s="5"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="8"/>
       <c r="B175" s="9"/>
       <c r="C175" s="8" t="s">
@@ -8205,7 +8216,7 @@
       </c>
       <c r="K175" s="5"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="8"/>
       <c r="B176" s="9"/>
       <c r="C176" s="8" t="s">
@@ -8234,7 +8245,7 @@
       </c>
       <c r="K176" s="5"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="8"/>
       <c r="B177" s="9"/>
       <c r="C177" s="8" t="s">
@@ -8263,7 +8274,7 @@
       </c>
       <c r="K177" s="5"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="8"/>
       <c r="B178" s="9"/>
       <c r="C178" s="8" t="s">
@@ -8292,7 +8303,7 @@
       </c>
       <c r="K178" s="5"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="8"/>
       <c r="B179" s="9"/>
       <c r="C179" s="8" t="s">
@@ -8321,7 +8332,7 @@
       </c>
       <c r="K179" s="5"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="8"/>
       <c r="B180" s="9"/>
       <c r="C180" s="8" t="s">
@@ -8350,7 +8361,7 @@
       </c>
       <c r="K180" s="5"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="8"/>
       <c r="B181" s="9"/>
       <c r="C181" s="8" t="s">
@@ -8379,7 +8390,7 @@
       </c>
       <c r="K181" s="5"/>
     </row>
-    <row r="182" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="11"/>
       <c r="B182" s="12"/>
       <c r="C182" s="11" t="s">
@@ -8406,7 +8417,7 @@
       </c>
       <c r="K182" s="7"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="8"/>
       <c r="B183" s="9"/>
       <c r="C183" s="8" t="s">
@@ -8433,7 +8444,7 @@
       </c>
       <c r="K183" s="5"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="8"/>
       <c r="B184" s="9"/>
       <c r="C184" s="8" t="s">
@@ -8460,7 +8471,7 @@
       </c>
       <c r="K184" s="5"/>
     </row>
-    <row r="185" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="11"/>
       <c r="B185" s="12"/>
       <c r="C185" s="11" t="s">
@@ -8487,7 +8498,7 @@
       </c>
       <c r="K185" s="7"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="8"/>
       <c r="B186" s="9"/>
       <c r="C186" s="8" t="s">
@@ -8514,7 +8525,7 @@
       </c>
       <c r="K186" s="5"/>
     </row>
-    <row r="187" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="11"/>
       <c r="B187" s="12"/>
       <c r="C187" s="11" t="s">
@@ -8541,7 +8552,7 @@
       </c>
       <c r="K187" s="7"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="8"/>
       <c r="B188" s="9"/>
       <c r="C188" s="8" t="s">
@@ -8568,7 +8579,7 @@
       </c>
       <c r="K188" s="5"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="8"/>
       <c r="B189" s="9"/>
       <c r="C189" s="8" t="s">
@@ -8595,7 +8606,7 @@
       </c>
       <c r="K189" s="5"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="8"/>
       <c r="B190" s="9"/>
       <c r="C190" s="8" t="s">
@@ -8622,7 +8633,7 @@
       </c>
       <c r="K190" s="5"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="8"/>
       <c r="B191" s="9"/>
       <c r="C191" s="8" t="s">
@@ -8649,7 +8660,7 @@
       </c>
       <c r="K191" s="5"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="8"/>
       <c r="B192" s="9"/>
       <c r="C192" s="8" t="s">
@@ -8676,7 +8687,7 @@
       </c>
       <c r="K192" s="5"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="8"/>
       <c r="B193" s="9"/>
       <c r="C193" s="8" t="s">
@@ -8703,7 +8714,7 @@
       </c>
       <c r="K193" s="5"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="8"/>
       <c r="B194" s="9"/>
       <c r="C194" s="8" t="s">
@@ -8730,7 +8741,7 @@
       </c>
       <c r="K194" s="5"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="8"/>
       <c r="B195" s="9"/>
       <c r="C195" s="8" t="s">
@@ -8757,7 +8768,7 @@
       </c>
       <c r="K195" s="5"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="8"/>
       <c r="B196" s="9"/>
       <c r="C196" s="8" t="s">
@@ -8784,7 +8795,7 @@
       </c>
       <c r="K196" s="5"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="8"/>
       <c r="B197" s="9"/>
       <c r="C197" s="8" t="s">
@@ -8811,7 +8822,7 @@
       </c>
       <c r="K197" s="5"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="8"/>
       <c r="B198" s="9"/>
       <c r="C198" s="8" t="s">
@@ -8838,7 +8849,7 @@
       </c>
       <c r="K198" s="5"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="8"/>
       <c r="B199" s="9"/>
       <c r="C199" s="8" t="s">
@@ -8865,7 +8876,7 @@
       </c>
       <c r="K199" s="5"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="8"/>
       <c r="B200" s="9"/>
       <c r="C200" s="8" t="s">
@@ -8892,7 +8903,7 @@
       </c>
       <c r="K200" s="5"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="8"/>
       <c r="B201" s="9"/>
       <c r="C201" s="8" t="s">
@@ -8919,7 +8930,7 @@
       </c>
       <c r="K201" s="5"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="8"/>
       <c r="B202" s="9"/>
       <c r="C202" s="8" t="s">
@@ -8946,7 +8957,7 @@
       </c>
       <c r="K202" s="5"/>
     </row>
-    <row r="203" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="11"/>
       <c r="B203" s="12"/>
       <c r="C203" s="11" t="s">
@@ -8973,7 +8984,7 @@
       </c>
       <c r="K203" s="7"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="8"/>
       <c r="B204" s="9"/>
       <c r="C204" s="8" t="s">
@@ -9000,7 +9011,7 @@
       </c>
       <c r="K204" s="5"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="8"/>
       <c r="B205" s="9"/>
       <c r="C205" s="8" t="s">
@@ -9027,7 +9038,7 @@
       </c>
       <c r="K205" s="5"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="8"/>
       <c r="B206" s="9"/>
       <c r="C206" s="8" t="s">
@@ -9054,7 +9065,7 @@
       </c>
       <c r="K206" s="5"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="8"/>
       <c r="B207" s="9"/>
       <c r="C207" s="8" t="s">
@@ -9081,7 +9092,7 @@
       </c>
       <c r="K207" s="5"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="8"/>
       <c r="B208" s="9"/>
       <c r="C208" s="8" t="s">
@@ -9108,7 +9119,7 @@
       </c>
       <c r="K208" s="5"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="8"/>
       <c r="B209" s="9"/>
       <c r="C209" s="8" t="s">
@@ -9137,7 +9148,7 @@
       </c>
       <c r="K209" s="5"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="8"/>
       <c r="B210" s="9"/>
       <c r="C210" s="8" t="s">
@@ -9166,7 +9177,7 @@
       </c>
       <c r="K210" s="5"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="8"/>
       <c r="B211" s="9"/>
       <c r="C211" s="8" t="s">
@@ -9195,7 +9206,7 @@
       </c>
       <c r="K211" s="5"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="8"/>
       <c r="B212" s="9"/>
       <c r="C212" s="8" t="s">
@@ -9224,7 +9235,7 @@
       </c>
       <c r="K212" s="5"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="8"/>
       <c r="B213" s="9"/>
       <c r="C213" s="8" t="s">
@@ -9253,7 +9264,7 @@
       </c>
       <c r="K213" s="5"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="8"/>
       <c r="B214" s="9"/>
       <c r="C214" s="8" t="s">
@@ -9282,7 +9293,7 @@
       </c>
       <c r="K214" s="5"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="8"/>
       <c r="B215" s="9"/>
       <c r="C215" s="8" t="s">
@@ -9311,7 +9322,7 @@
       </c>
       <c r="K215" s="5"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="8"/>
       <c r="B216" s="9"/>
       <c r="C216" s="8" t="s">
@@ -9340,7 +9351,7 @@
       </c>
       <c r="K216" s="5"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="8"/>
       <c r="B217" s="9"/>
       <c r="C217" s="8" t="s">
@@ -9369,7 +9380,7 @@
       </c>
       <c r="K217" s="5"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="8"/>
       <c r="B218" s="9"/>
       <c r="C218" s="8" t="s">
@@ -9398,7 +9409,7 @@
       </c>
       <c r="K218" s="5"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="8"/>
       <c r="B219" s="9"/>
       <c r="C219" s="8" t="s">
@@ -9427,7 +9438,7 @@
       </c>
       <c r="K219" s="5"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="8"/>
       <c r="B220" s="9"/>
       <c r="C220" s="8" t="s">
@@ -9456,7 +9467,7 @@
       </c>
       <c r="K220" s="5"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="8"/>
       <c r="B221" s="9"/>
       <c r="C221" s="8" t="s">
@@ -9485,7 +9496,7 @@
       </c>
       <c r="K221" s="5"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="8"/>
       <c r="B222" s="9"/>
       <c r="C222" s="8" t="s">
@@ -9514,7 +9525,7 @@
       </c>
       <c r="K222" s="5"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="8"/>
       <c r="B223" s="9"/>
       <c r="C223" s="8" t="s">
@@ -9543,7 +9554,7 @@
       </c>
       <c r="K223" s="5"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="8"/>
       <c r="B224" s="9"/>
       <c r="C224" s="8" t="s">
@@ -9572,7 +9583,7 @@
       </c>
       <c r="K224" s="5"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="8"/>
       <c r="B225" s="9"/>
       <c r="C225" s="8" t="s">
@@ -9601,7 +9612,7 @@
       </c>
       <c r="K225" s="5"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="8"/>
       <c r="B226" s="9"/>
       <c r="C226" s="8" t="s">
@@ -9630,7 +9641,7 @@
       </c>
       <c r="K226" s="5"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="8"/>
       <c r="B227" s="9"/>
       <c r="C227" s="8" t="s">
@@ -9659,7 +9670,7 @@
       </c>
       <c r="K227" s="5"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="8"/>
       <c r="B228" s="9"/>
       <c r="C228" s="8" t="s">
@@ -9688,7 +9699,7 @@
       </c>
       <c r="K228" s="5"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="8"/>
       <c r="B229" s="9"/>
       <c r="C229" s="8" t="s">
@@ -9717,7 +9728,7 @@
       </c>
       <c r="K229" s="5"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="8"/>
       <c r="B230" s="9"/>
       <c r="C230" s="8" t="s">
@@ -9746,7 +9757,7 @@
       </c>
       <c r="K230" s="5"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="8"/>
       <c r="B231" s="9"/>
       <c r="C231" s="8" t="s">
@@ -9775,7 +9786,7 @@
       </c>
       <c r="K231" s="5"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="8"/>
       <c r="B232" s="9"/>
       <c r="C232" s="8" t="s">
@@ -9804,7 +9815,7 @@
       </c>
       <c r="K232" s="5"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="8"/>
       <c r="B233" s="9"/>
       <c r="C233" s="8" t="s">
@@ -9833,7 +9844,7 @@
       </c>
       <c r="K233" s="5"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="8"/>
       <c r="B234" s="9"/>
       <c r="C234" s="8" t="s">
@@ -9862,7 +9873,7 @@
       </c>
       <c r="K234" s="5"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="8"/>
       <c r="B235" s="9"/>
       <c r="C235" s="8" t="s">
@@ -9891,7 +9902,7 @@
       </c>
       <c r="K235" s="5"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="8"/>
       <c r="B236" s="9"/>
       <c r="C236" s="8" t="s">
@@ -9920,7 +9931,7 @@
       </c>
       <c r="K236" s="5"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="8"/>
       <c r="B237" s="9"/>
       <c r="C237" s="8" t="s">
@@ -9949,7 +9960,7 @@
       </c>
       <c r="K237" s="5"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="8"/>
       <c r="B238" s="9"/>
       <c r="C238" s="8" t="s">
@@ -9978,7 +9989,7 @@
       </c>
       <c r="K238" s="5"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="8"/>
       <c r="B239" s="9"/>
       <c r="C239" s="8" t="s">
@@ -10007,7 +10018,7 @@
       </c>
       <c r="K239" s="5"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="8"/>
       <c r="B240" s="9"/>
       <c r="C240" s="8" t="s">
@@ -10036,7 +10047,7 @@
       </c>
       <c r="K240" s="5"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="8"/>
       <c r="B241" s="9"/>
       <c r="C241" s="8" t="s">
@@ -10065,7 +10076,7 @@
       </c>
       <c r="K241" s="5"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="8"/>
       <c r="B242" s="9"/>
       <c r="C242" s="8" t="s">
@@ -10094,7 +10105,7 @@
       </c>
       <c r="K242" s="5"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="8"/>
       <c r="B243" s="9"/>
       <c r="C243" s="8" t="s">
@@ -10123,7 +10134,7 @@
       </c>
       <c r="K243" s="5"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="8"/>
       <c r="B244" s="9"/>
       <c r="C244" s="8" t="s">
@@ -10152,7 +10163,7 @@
       </c>
       <c r="K244" s="5"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="8"/>
       <c r="B245" s="9"/>
       <c r="C245" s="8" t="s">
@@ -10181,7 +10192,7 @@
       </c>
       <c r="K245" s="5"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="8"/>
       <c r="B246" s="9"/>
       <c r="C246" s="8" t="s">
@@ -10210,7 +10221,7 @@
       </c>
       <c r="K246" s="5"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="8"/>
       <c r="B247" s="9"/>
       <c r="C247" s="8" t="s">
@@ -10239,7 +10250,7 @@
       </c>
       <c r="K247" s="5"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="8"/>
       <c r="B248" s="9"/>
       <c r="C248" s="8" t="s">
@@ -10268,7 +10279,7 @@
       </c>
       <c r="K248" s="5"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="8"/>
       <c r="B249" s="9"/>
       <c r="C249" s="8" t="s">
@@ -10297,7 +10308,7 @@
       </c>
       <c r="K249" s="5"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="8"/>
       <c r="B250" s="9"/>
       <c r="C250" s="8" t="s">
@@ -10326,7 +10337,7 @@
       </c>
       <c r="K250" s="5"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="8"/>
       <c r="B251" s="9"/>
       <c r="C251" s="8" t="s">
@@ -10355,7 +10366,7 @@
       </c>
       <c r="K251" s="5"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="8"/>
       <c r="B252" s="9"/>
       <c r="C252" s="8" t="s">
@@ -10382,7 +10393,7 @@
       </c>
       <c r="K252" s="5"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="8"/>
       <c r="B253" s="9"/>
       <c r="C253" s="8" t="s">
@@ -10411,7 +10422,7 @@
       </c>
       <c r="K253" s="5"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="8"/>
       <c r="B254" s="9"/>
       <c r="C254" s="8" t="s">
@@ -10440,7 +10451,7 @@
       </c>
       <c r="K254" s="5"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="8"/>
       <c r="B255" s="9"/>
       <c r="C255" s="8" t="s">
@@ -10469,7 +10480,7 @@
       </c>
       <c r="K255" s="5"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="8"/>
       <c r="B256" s="9"/>
       <c r="C256" s="8" t="s">
@@ -10498,7 +10509,7 @@
       </c>
       <c r="K256" s="5"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="8"/>
       <c r="B257" s="9"/>
       <c r="C257" s="8" t="s">
@@ -10527,7 +10538,7 @@
       </c>
       <c r="K257" s="5"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="8"/>
       <c r="B258" s="9"/>
       <c r="C258" s="8" t="s">
@@ -10556,7 +10567,7 @@
       </c>
       <c r="K258" s="5"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="8"/>
       <c r="B259" s="9"/>
       <c r="C259" s="8" t="s">
@@ -10585,7 +10596,7 @@
       </c>
       <c r="K259" s="5"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="8"/>
       <c r="B260" s="9"/>
       <c r="C260" s="8" t="s">
@@ -10614,7 +10625,7 @@
       </c>
       <c r="K260" s="5"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="8"/>
       <c r="B261" s="9"/>
       <c r="C261" s="8" t="s">
@@ -10643,7 +10654,7 @@
       </c>
       <c r="K261" s="5"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="8"/>
       <c r="B262" s="9"/>
       <c r="C262" s="8" t="s">
@@ -10672,7 +10683,7 @@
       </c>
       <c r="K262" s="5"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="8"/>
       <c r="B263" s="9"/>
       <c r="C263" s="8" t="s">
@@ -10701,7 +10712,7 @@
       </c>
       <c r="K263" s="5"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="8"/>
       <c r="B264" s="9"/>
       <c r="C264" s="8" t="s">
@@ -10730,7 +10741,7 @@
       </c>
       <c r="K264" s="5"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="8"/>
       <c r="B265" s="9"/>
       <c r="C265" s="8" t="s">
@@ -10759,7 +10770,7 @@
       </c>
       <c r="K265" s="5"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="8"/>
       <c r="B266" s="9"/>
       <c r="C266" s="8" t="s">
@@ -10788,7 +10799,7 @@
       </c>
       <c r="K266" s="5"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="8"/>
       <c r="B267" s="9"/>
       <c r="C267" s="8" t="s">
@@ -10817,7 +10828,7 @@
       </c>
       <c r="K267" s="5"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="8"/>
       <c r="B268" s="9"/>
       <c r="C268" s="8" t="s">
@@ -10846,7 +10857,7 @@
       </c>
       <c r="K268" s="5"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="8"/>
       <c r="B269" s="9"/>
       <c r="C269" s="8" t="s">
@@ -10875,7 +10886,7 @@
       </c>
       <c r="K269" s="5"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="8"/>
       <c r="B270" s="9"/>
       <c r="C270" s="8" t="s">
@@ -10904,7 +10915,7 @@
       </c>
       <c r="K270" s="5"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="8"/>
       <c r="B271" s="9"/>
       <c r="C271" s="8" t="s">
@@ -10933,7 +10944,7 @@
       </c>
       <c r="K271" s="5"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="8"/>
       <c r="B272" s="9"/>
       <c r="C272" s="8" t="s">
@@ -10962,7 +10973,7 @@
       </c>
       <c r="K272" s="5"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="8"/>
       <c r="B273" s="9"/>
       <c r="C273" s="8" t="s">
@@ -10991,7 +11002,7 @@
       </c>
       <c r="K273" s="5"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="8"/>
       <c r="B274" s="9"/>
       <c r="C274" s="8" t="s">
@@ -11020,7 +11031,7 @@
       </c>
       <c r="K274" s="5"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="8"/>
       <c r="B275" s="9"/>
       <c r="C275" s="8" t="s">
@@ -11049,7 +11060,7 @@
       </c>
       <c r="K275" s="5"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="8"/>
       <c r="B276" s="9"/>
       <c r="C276" s="8" t="s">
@@ -11078,7 +11089,7 @@
       </c>
       <c r="K276" s="5"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="8"/>
       <c r="B277" s="9"/>
       <c r="C277" s="8" t="s">
@@ -11107,7 +11118,7 @@
       </c>
       <c r="K277" s="5"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="8"/>
       <c r="B278" s="9"/>
       <c r="C278" s="8" t="s">
@@ -11136,7 +11147,7 @@
       </c>
       <c r="K278" s="5"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="8"/>
       <c r="B279" s="9"/>
       <c r="C279" s="8" t="s">
@@ -11165,7 +11176,7 @@
       </c>
       <c r="K279" s="5"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="8"/>
       <c r="B280" s="9"/>
       <c r="C280" s="8" t="s">
@@ -11194,7 +11205,7 @@
       </c>
       <c r="K280" s="5"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="8"/>
       <c r="B281" s="9"/>
       <c r="C281" s="8" t="s">
@@ -11223,7 +11234,7 @@
       </c>
       <c r="K281" s="5"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="8"/>
       <c r="B282" s="9"/>
       <c r="C282" s="8" t="s">
@@ -11252,7 +11263,7 @@
       </c>
       <c r="K282" s="5"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="8"/>
       <c r="B283" s="9"/>
       <c r="C283" s="8" t="s">
@@ -11281,7 +11292,7 @@
       </c>
       <c r="K283" s="5"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="8"/>
       <c r="B284" s="9"/>
       <c r="C284" s="8" t="s">
@@ -11310,7 +11321,7 @@
       </c>
       <c r="K284" s="5"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="8"/>
       <c r="B285" s="9"/>
       <c r="C285" s="8" t="s">
@@ -11352,58 +11363,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>232049</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B2" s="1">
         <v>29639</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>117</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>118</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>101</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1</v>
-      </c>
-      <c r="G1">
-        <v>211</v>
-      </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
-      <c r="K1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>232050</v>
-      </c>
-      <c r="B2" s="1">
-        <v>29640</v>
-      </c>
-      <c r="C2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" t="s">
-        <v>70</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -11415,53 +11402,53 @@
         <v>6</v>
       </c>
       <c r="K2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>232051</v>
+        <v>232050</v>
       </c>
       <c r="B3" s="1">
-        <v>29642</v>
+        <v>29640</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H3" s="1">
         <v>6</v>
       </c>
       <c r="K3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>232052</v>
+        <v>232051</v>
       </c>
       <c r="B4" s="1">
-        <v>29643</v>
+        <v>29642</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -11473,24 +11460,24 @@
         <v>6</v>
       </c>
       <c r="K4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>232053</v>
+        <v>232052</v>
       </c>
       <c r="B5" s="1">
-        <v>29644</v>
+        <v>29643</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -11502,24 +11489,24 @@
         <v>6</v>
       </c>
       <c r="K5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>232054</v>
+        <v>232053</v>
       </c>
       <c r="B6" s="1">
-        <v>29645</v>
+        <v>29644</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -11531,82 +11518,82 @@
         <v>6</v>
       </c>
       <c r="K6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>232055</v>
+        <v>232054</v>
       </c>
       <c r="B7" s="1">
-        <v>29646</v>
+        <v>29645</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H7" s="1">
         <v>6</v>
       </c>
       <c r="K7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>232056</v>
+        <v>232055</v>
       </c>
       <c r="B8" s="1">
-        <v>29647</v>
+        <v>29646</v>
       </c>
       <c r="C8" t="s">
-        <v>519</v>
+        <v>126</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="H8" s="1">
         <v>6</v>
       </c>
       <c r="K8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>232057</v>
+        <v>232056</v>
       </c>
       <c r="B9" s="1">
-        <v>29648</v>
+        <v>29647</v>
       </c>
       <c r="C9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>521</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -11618,24 +11605,24 @@
         <v>6</v>
       </c>
       <c r="K9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>232058</v>
+        <v>232057</v>
       </c>
       <c r="B10" s="1">
-        <v>29649</v>
+        <v>29648</v>
       </c>
       <c r="C10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D10" t="s">
-        <v>523</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>521</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -11647,24 +11634,24 @@
         <v>6</v>
       </c>
       <c r="K10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>232059</v>
+        <v>232058</v>
       </c>
       <c r="B11" s="1">
-        <v>29650</v>
+        <v>29649</v>
       </c>
       <c r="C11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>523</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -11676,24 +11663,24 @@
         <v>6</v>
       </c>
       <c r="K11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>232060</v>
+        <v>232059</v>
       </c>
       <c r="B12" s="1">
-        <v>29651</v>
+        <v>29650</v>
       </c>
       <c r="C12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D12" t="s">
-        <v>251</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -11705,24 +11692,24 @@
         <v>6</v>
       </c>
       <c r="K12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>232061</v>
+        <v>232060</v>
       </c>
       <c r="B13" s="1">
-        <v>29652</v>
+        <v>29651</v>
       </c>
       <c r="C13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>251</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -11734,21 +11721,21 @@
         <v>6</v>
       </c>
       <c r="K13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>232062</v>
+        <v>232061</v>
       </c>
       <c r="B14" s="1">
-        <v>29653</v>
+        <v>29652</v>
       </c>
       <c r="C14" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D14" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="E14" t="s">
         <v>73</v>
@@ -11763,53 +11750,53 @@
         <v>6</v>
       </c>
       <c r="K14">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>232063</v>
+        <v>232062</v>
       </c>
       <c r="B15" s="1">
-        <v>29654</v>
+        <v>29653</v>
       </c>
       <c r="C15" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="E15" t="s">
-        <v>252</v>
+        <v>73</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H15" s="1">
         <v>6</v>
       </c>
       <c r="K15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>232064</v>
+        <v>232063</v>
       </c>
       <c r="B16" s="1">
-        <v>29655</v>
+        <v>29654</v>
       </c>
       <c r="C16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -11821,53 +11808,53 @@
         <v>6</v>
       </c>
       <c r="K16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>232065</v>
+        <v>232064</v>
       </c>
       <c r="B17" s="1">
-        <v>29656</v>
+        <v>29655</v>
       </c>
       <c r="C17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H17" s="1">
         <v>6</v>
       </c>
       <c r="K17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>232066</v>
+        <v>232065</v>
       </c>
       <c r="B18" s="1">
-        <v>29657</v>
+        <v>29656</v>
       </c>
       <c r="C18" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -11879,53 +11866,53 @@
         <v>6</v>
       </c>
       <c r="K18">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>232067</v>
+        <v>232066</v>
       </c>
       <c r="B19" s="1">
-        <v>29658</v>
+        <v>29657</v>
       </c>
       <c r="C19" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D19" t="s">
-        <v>533</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>534</v>
+        <v>125</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H19" s="1">
         <v>6</v>
       </c>
       <c r="K19">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>232068</v>
+        <v>232067</v>
       </c>
       <c r="B20" s="1">
-        <v>29659</v>
+        <v>29658</v>
       </c>
       <c r="C20" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D20" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E20" t="s">
-        <v>466</v>
+        <v>534</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -11937,53 +11924,53 @@
         <v>6</v>
       </c>
       <c r="K20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>232069</v>
+        <v>232068</v>
       </c>
       <c r="B21" s="1">
-        <v>29660</v>
+        <v>29659</v>
       </c>
       <c r="C21" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>536</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>466</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H21" s="1">
         <v>6</v>
       </c>
       <c r="K21">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>232070</v>
+        <v>232069</v>
       </c>
       <c r="B22" s="1">
-        <v>29661</v>
+        <v>29660</v>
       </c>
       <c r="C22" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
@@ -11995,21 +11982,21 @@
         <v>6</v>
       </c>
       <c r="K22">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>232202</v>
+        <v>232070</v>
       </c>
       <c r="B23" s="1">
-        <v>29955</v>
+        <v>29661</v>
       </c>
       <c r="C23" t="s">
-        <v>322</v>
+        <v>538</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
@@ -12018,59 +12005,59 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="H23" s="1">
         <v>6</v>
       </c>
       <c r="K23">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>232231</v>
+        <v>232202</v>
       </c>
       <c r="B24" s="1">
-        <v>30252</v>
+        <v>29955</v>
       </c>
       <c r="C24" t="s">
-        <v>539</v>
+        <v>322</v>
       </c>
       <c r="D24" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="H24" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K24">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>232232</v>
+        <v>232231</v>
       </c>
       <c r="B25" s="1">
-        <v>30253</v>
+        <v>30252</v>
       </c>
       <c r="C25" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
@@ -12082,82 +12069,82 @@
         <v>2</v>
       </c>
       <c r="K25">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>232233</v>
+        <v>232232</v>
       </c>
       <c r="B26" s="1">
-        <v>30254</v>
+        <v>30253</v>
       </c>
       <c r="C26" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="H26" s="1">
         <v>2</v>
       </c>
       <c r="K26">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>232311</v>
+        <v>232233</v>
       </c>
       <c r="B27" s="1">
-        <v>30332</v>
+        <v>30254</v>
       </c>
       <c r="C27" t="s">
-        <v>473</v>
+        <v>541</v>
       </c>
       <c r="D27" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="H27" s="1">
         <v>2</v>
       </c>
       <c r="K27">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>232312</v>
+        <v>232311</v>
       </c>
       <c r="B28" s="1">
-        <v>30333</v>
+        <v>30332</v>
       </c>
       <c r="C28" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="E28" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
@@ -12169,24 +12156,24 @@
         <v>2</v>
       </c>
       <c r="K28">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>232313</v>
+        <v>232312</v>
       </c>
       <c r="B29" s="1">
-        <v>30334</v>
+        <v>30333</v>
       </c>
       <c r="C29" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D29" t="s">
-        <v>251</v>
+        <v>99</v>
       </c>
       <c r="E29" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
@@ -12198,24 +12185,24 @@
         <v>2</v>
       </c>
       <c r="K29">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>232314</v>
+        <v>232313</v>
       </c>
       <c r="B30" s="1">
-        <v>30335</v>
+        <v>30334</v>
       </c>
       <c r="C30" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D30" t="s">
-        <v>380</v>
+        <v>251</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
@@ -12227,24 +12214,24 @@
         <v>2</v>
       </c>
       <c r="K30">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>232315</v>
+        <v>232314</v>
       </c>
       <c r="B31" s="1">
-        <v>30336</v>
+        <v>30335</v>
       </c>
       <c r="C31" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D31" t="s">
-        <v>237</v>
+        <v>380</v>
       </c>
       <c r="E31" t="s">
-        <v>478</v>
+        <v>85</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
@@ -12256,24 +12243,24 @@
         <v>2</v>
       </c>
       <c r="K31">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>232316</v>
+        <v>232315</v>
       </c>
       <c r="B32" s="1">
-        <v>30337</v>
+        <v>30336</v>
       </c>
       <c r="C32" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>237</v>
       </c>
       <c r="E32" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F32" s="1">
         <v>1</v>
@@ -12285,24 +12272,24 @@
         <v>2</v>
       </c>
       <c r="K32">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>232317</v>
+        <v>232316</v>
       </c>
       <c r="B33" s="1">
-        <v>30338</v>
+        <v>30337</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>479</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E33" t="s">
-        <v>304</v>
+        <v>480</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
@@ -12314,24 +12301,24 @@
         <v>2</v>
       </c>
       <c r="K33">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>232318</v>
+        <v>232317</v>
       </c>
       <c r="B34" s="1">
-        <v>30339</v>
+        <v>30338</v>
       </c>
       <c r="C34" t="s">
-        <v>481</v>
+        <v>53</v>
       </c>
       <c r="D34" t="s">
-        <v>175</v>
+        <v>99</v>
       </c>
       <c r="E34" t="s">
-        <v>90</v>
+        <v>304</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
@@ -12343,24 +12330,24 @@
         <v>2</v>
       </c>
       <c r="K34">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>232319</v>
+        <v>232318</v>
       </c>
       <c r="B35" s="1">
-        <v>30340</v>
+        <v>30339</v>
       </c>
       <c r="C35" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D35" t="s">
-        <v>483</v>
+        <v>175</v>
       </c>
       <c r="E35" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
@@ -12372,24 +12359,24 @@
         <v>2</v>
       </c>
       <c r="K35">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>232320</v>
+        <v>232319</v>
       </c>
       <c r="B36" s="1">
-        <v>30341</v>
+        <v>30340</v>
       </c>
       <c r="C36" t="s">
-        <v>322</v>
+        <v>482</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>483</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
@@ -12401,24 +12388,24 @@
         <v>2</v>
       </c>
       <c r="K36">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>232321</v>
+        <v>232320</v>
       </c>
       <c r="B37" s="1">
-        <v>30342</v>
+        <v>30341</v>
       </c>
       <c r="C37" t="s">
-        <v>484</v>
+        <v>322</v>
       </c>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="E37" t="s">
-        <v>189</v>
+        <v>47</v>
       </c>
       <c r="F37" s="1">
         <v>1</v>
@@ -12430,24 +12417,24 @@
         <v>2</v>
       </c>
       <c r="K37">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>232322</v>
+        <v>232321</v>
       </c>
       <c r="B38" s="1">
-        <v>30343</v>
+        <v>30342</v>
       </c>
       <c r="C38" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D38" t="s">
-        <v>440</v>
+        <v>57</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>189</v>
       </c>
       <c r="F38" s="1">
         <v>1</v>
@@ -12459,24 +12446,24 @@
         <v>2</v>
       </c>
       <c r="K38">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>232323</v>
+        <v>232322</v>
       </c>
       <c r="B39" s="1">
-        <v>30344</v>
+        <v>30343</v>
       </c>
       <c r="C39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D39" t="s">
-        <v>99</v>
+        <v>440</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F39" s="1">
         <v>1</v>
@@ -12488,24 +12475,24 @@
         <v>2</v>
       </c>
       <c r="K39">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>232324</v>
+        <v>232323</v>
       </c>
       <c r="B40" s="1">
-        <v>30345</v>
+        <v>30344</v>
       </c>
       <c r="C40" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="E40" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="F40" s="1">
         <v>1</v>
@@ -12517,53 +12504,53 @@
         <v>2</v>
       </c>
       <c r="K40">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>232325</v>
+        <v>232324</v>
       </c>
       <c r="B41" s="1">
-        <v>30346</v>
+        <v>30345</v>
       </c>
       <c r="C41" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D41" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>489</v>
+        <v>87</v>
       </c>
       <c r="F41" s="1">
         <v>1</v>
       </c>
       <c r="G41">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H41" s="1">
         <v>2</v>
       </c>
       <c r="K41">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>232326</v>
+        <v>232325</v>
       </c>
       <c r="B42" s="1">
-        <v>30347</v>
+        <v>30346</v>
       </c>
       <c r="C42" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D42" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>489</v>
       </c>
       <c r="F42" s="1">
         <v>1</v>
@@ -12575,24 +12562,24 @@
         <v>2</v>
       </c>
       <c r="K42">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>232327</v>
+        <v>232326</v>
       </c>
       <c r="B43" s="1">
-        <v>30348</v>
+        <v>30347</v>
       </c>
       <c r="C43" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="E43" t="s">
-        <v>384</v>
+        <v>39</v>
       </c>
       <c r="F43" s="1">
         <v>1</v>
@@ -12604,24 +12591,24 @@
         <v>2</v>
       </c>
       <c r="K43">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>232328</v>
+        <v>232327</v>
       </c>
       <c r="B44" s="1">
-        <v>30349</v>
+        <v>30348</v>
       </c>
       <c r="C44" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D44" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>130</v>
+        <v>384</v>
       </c>
       <c r="F44" s="1">
         <v>1</v>
@@ -12633,24 +12620,24 @@
         <v>2</v>
       </c>
       <c r="K44">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>232329</v>
+        <v>232328</v>
       </c>
       <c r="B45" s="1">
-        <v>30350</v>
+        <v>30349</v>
       </c>
       <c r="C45" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D45" t="s">
         <v>89</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="F45" s="1">
         <v>1</v>
@@ -12662,24 +12649,24 @@
         <v>2</v>
       </c>
       <c r="K45">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>232330</v>
+        <v>232329</v>
       </c>
       <c r="B46" s="1">
-        <v>30351</v>
+        <v>30350</v>
       </c>
       <c r="C46" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D46" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="E46" t="s">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="F46" s="1">
         <v>1</v>
@@ -12691,24 +12678,24 @@
         <v>2</v>
       </c>
       <c r="K46">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>232331</v>
+        <v>232330</v>
       </c>
       <c r="B47" s="1">
-        <v>30352</v>
+        <v>30351</v>
       </c>
       <c r="C47" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="E47" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="F47" s="1">
         <v>1</v>
@@ -12720,24 +12707,24 @@
         <v>2</v>
       </c>
       <c r="K47">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>232332</v>
+        <v>232331</v>
       </c>
       <c r="B48" s="1">
-        <v>30353</v>
+        <v>30352</v>
       </c>
       <c r="C48" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D48" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>127</v>
+        <v>235</v>
       </c>
       <c r="F48" s="1">
         <v>1</v>
@@ -12749,53 +12736,53 @@
         <v>2</v>
       </c>
       <c r="K48">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>232333</v>
+        <v>232332</v>
       </c>
       <c r="B49" s="1">
-        <v>30354</v>
+        <v>30353</v>
       </c>
       <c r="C49" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="E49" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="F49" s="1">
         <v>1</v>
       </c>
       <c r="G49">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H49" s="1">
         <v>2</v>
       </c>
       <c r="K49">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>232334</v>
+        <v>232333</v>
       </c>
       <c r="B50" s="1">
-        <v>30355</v>
+        <v>30354</v>
       </c>
       <c r="C50" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D50" t="s">
-        <v>178</v>
+        <v>57</v>
       </c>
       <c r="E50" t="s">
-        <v>203</v>
+        <v>55</v>
       </c>
       <c r="F50" s="1">
         <v>1</v>
@@ -12807,53 +12794,53 @@
         <v>2</v>
       </c>
       <c r="K50">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>232335</v>
-      </c>
-      <c r="B51">
-        <v>30356</v>
+        <v>232334</v>
+      </c>
+      <c r="B51" s="1">
+        <v>30355</v>
       </c>
       <c r="C51" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D51" t="s">
-        <v>94</v>
+        <v>178</v>
       </c>
       <c r="E51" t="s">
-        <v>225</v>
-      </c>
-      <c r="F51">
+        <v>203</v>
+      </c>
+      <c r="F51" s="1">
         <v>1</v>
       </c>
       <c r="G51">
         <v>213</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="1">
         <v>2</v>
       </c>
       <c r="K51">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>232336</v>
+        <v>232335</v>
       </c>
       <c r="B52">
-        <v>30357</v>
+        <v>30356</v>
       </c>
       <c r="C52" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D52" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="E52" t="s">
-        <v>9</v>
+        <v>225</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -12865,24 +12852,24 @@
         <v>2</v>
       </c>
       <c r="K52">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>232337</v>
+        <v>232336</v>
       </c>
       <c r="B53">
-        <v>30358</v>
+        <v>30357</v>
       </c>
       <c r="C53" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D53" t="s">
-        <v>502</v>
+        <v>154</v>
       </c>
       <c r="E53" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -12894,24 +12881,24 @@
         <v>2</v>
       </c>
       <c r="K53">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>232338</v>
+        <v>232337</v>
       </c>
       <c r="B54">
-        <v>30359</v>
+        <v>30358</v>
       </c>
       <c r="C54" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D54" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E54" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -12923,21 +12910,21 @@
         <v>2</v>
       </c>
       <c r="K54">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>232339</v>
+        <v>232338</v>
       </c>
       <c r="B55">
-        <v>30360</v>
+        <v>30359</v>
       </c>
       <c r="C55" t="s">
-        <v>430</v>
+        <v>503</v>
       </c>
       <c r="D55" t="s">
-        <v>23</v>
+        <v>504</v>
       </c>
       <c r="E55" t="s">
         <v>55</v>
@@ -12952,24 +12939,24 @@
         <v>2</v>
       </c>
       <c r="K55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>232339</v>
+      </c>
+      <c r="B56">
+        <v>30360</v>
+      </c>
+      <c r="C56" t="s">
+        <v>430</v>
+      </c>
+      <c r="D56" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>232340</v>
-      </c>
-      <c r="B56">
-        <v>30361</v>
-      </c>
-      <c r="C56" t="s">
-        <v>505</v>
-      </c>
-      <c r="D56" t="s">
-        <v>237</v>
-      </c>
-      <c r="E56" t="s">
-        <v>200</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -12981,24 +12968,24 @@
         <v>2</v>
       </c>
       <c r="K56">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>232341</v>
+        <v>232340</v>
       </c>
       <c r="B57">
-        <v>30362</v>
+        <v>30361</v>
       </c>
       <c r="C57" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D57" t="s">
-        <v>64</v>
+        <v>237</v>
       </c>
       <c r="E57" t="s">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -13010,21 +12997,21 @@
         <v>2</v>
       </c>
       <c r="K57">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>232342</v>
+        <v>232341</v>
       </c>
       <c r="B58">
-        <v>30363</v>
+        <v>30362</v>
       </c>
       <c r="C58" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D58" t="s">
-        <v>302</v>
+        <v>64</v>
       </c>
       <c r="E58" t="s">
         <v>73</v>
@@ -13039,24 +13026,24 @@
         <v>2</v>
       </c>
       <c r="K58">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>232343</v>
+        <v>232342</v>
       </c>
       <c r="B59">
-        <v>30364</v>
+        <v>30363</v>
       </c>
       <c r="C59" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D59" t="s">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="E59" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -13068,24 +13055,24 @@
         <v>2</v>
       </c>
       <c r="K59">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>232344</v>
+        <v>232343</v>
       </c>
       <c r="B60">
-        <v>30365</v>
+        <v>30364</v>
       </c>
       <c r="C60" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D60" t="s">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="E60" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -13097,24 +13084,24 @@
         <v>2</v>
       </c>
       <c r="K60">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>232345</v>
+        <v>232344</v>
       </c>
       <c r="B61">
-        <v>30366</v>
+        <v>30365</v>
       </c>
       <c r="C61" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D61" t="s">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c r="E61" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -13126,24 +13113,24 @@
         <v>2</v>
       </c>
       <c r="K61">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>232346</v>
+        <v>232345</v>
       </c>
       <c r="B62">
-        <v>30367</v>
+        <v>30366</v>
       </c>
       <c r="C62" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D62" t="s">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="E62" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -13155,24 +13142,24 @@
         <v>2</v>
       </c>
       <c r="K62">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>232347</v>
+        <v>232346</v>
       </c>
       <c r="B63">
-        <v>30368</v>
+        <v>30367</v>
       </c>
       <c r="C63" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D63" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="E63" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -13184,24 +13171,24 @@
         <v>2</v>
       </c>
       <c r="K63">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>232348</v>
+        <v>232347</v>
       </c>
       <c r="B64">
-        <v>30369</v>
+        <v>30368</v>
       </c>
       <c r="C64" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D64" t="s">
-        <v>298</v>
+        <v>94</v>
       </c>
       <c r="E64" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -13213,24 +13200,24 @@
         <v>2</v>
       </c>
       <c r="K64">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>232349</v>
+        <v>232348</v>
       </c>
       <c r="B65">
-        <v>30370</v>
+        <v>30369</v>
       </c>
       <c r="C65" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D65" t="s">
-        <v>452</v>
+        <v>298</v>
       </c>
       <c r="E65" t="s">
-        <v>515</v>
+        <v>47</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -13242,24 +13229,24 @@
         <v>2</v>
       </c>
       <c r="K65">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>232350</v>
+        <v>232349</v>
       </c>
       <c r="B66">
-        <v>30371</v>
+        <v>30370</v>
       </c>
       <c r="C66" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D66" t="s">
-        <v>72</v>
+        <v>452</v>
       </c>
       <c r="E66" t="s">
-        <v>271</v>
+        <v>515</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -13271,24 +13258,24 @@
         <v>2</v>
       </c>
       <c r="K66">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>232351</v>
+        <v>232350</v>
       </c>
       <c r="B67">
-        <v>30372</v>
+        <v>30371</v>
       </c>
       <c r="C67" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D67" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="E67" t="s">
-        <v>15</v>
+        <v>271</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -13300,24 +13287,24 @@
         <v>2</v>
       </c>
       <c r="K67">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>232352</v>
+        <v>232351</v>
       </c>
       <c r="B68">
-        <v>30373</v>
+        <v>30372</v>
       </c>
       <c r="C68" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E68" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -13329,53 +13316,53 @@
         <v>2</v>
       </c>
       <c r="K68">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>232353</v>
+        <v>232352</v>
       </c>
       <c r="B69">
-        <v>30803</v>
+        <v>30373</v>
       </c>
       <c r="C69" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="D69" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E69" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="F69">
         <v>1</v>
       </c>
       <c r="G69">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="H69">
         <v>2</v>
       </c>
       <c r="K69">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>232354</v>
+        <v>232353</v>
       </c>
       <c r="B70">
-        <v>30804</v>
+        <v>30803</v>
       </c>
       <c r="C70" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D70" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E70" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -13387,24 +13374,24 @@
         <v>2</v>
       </c>
       <c r="K70">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>232355</v>
+        <v>232354</v>
       </c>
       <c r="B71">
-        <v>30805</v>
+        <v>30804</v>
       </c>
       <c r="C71" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D71" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="E71" t="s">
-        <v>534</v>
+        <v>87</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -13416,82 +13403,82 @@
         <v>2</v>
       </c>
       <c r="K71">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>232356</v>
+        <v>232355</v>
       </c>
       <c r="B72">
-        <v>30806</v>
+        <v>30805</v>
       </c>
       <c r="C72" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D72" t="s">
-        <v>546</v>
+        <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>47</v>
+        <v>534</v>
       </c>
       <c r="F72">
         <v>1</v>
       </c>
       <c r="G72">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H72">
         <v>2</v>
       </c>
       <c r="K72">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>232357</v>
+        <v>232356</v>
       </c>
       <c r="B73">
-        <v>30807</v>
+        <v>30806</v>
       </c>
       <c r="C73" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>546</v>
       </c>
       <c r="E73" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F73">
         <v>1</v>
       </c>
       <c r="G73">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H73">
         <v>2</v>
       </c>
       <c r="K73">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>232358</v>
+        <v>232357</v>
       </c>
       <c r="B74">
-        <v>30808</v>
+        <v>30807</v>
       </c>
       <c r="C74" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D74" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -13503,111 +13490,111 @@
         <v>2</v>
       </c>
       <c r="K74">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>232359</v>
+        <v>232358</v>
       </c>
       <c r="B75">
-        <v>30809</v>
+        <v>30808</v>
       </c>
       <c r="C75" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D75" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="E75" t="s">
-        <v>282</v>
+        <v>143</v>
       </c>
       <c r="F75">
         <v>1</v>
       </c>
       <c r="G75">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H75">
         <v>2</v>
       </c>
       <c r="K75">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>232360</v>
+        <v>232359</v>
       </c>
       <c r="B76">
-        <v>30810</v>
+        <v>30809</v>
       </c>
       <c r="C76" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D76" t="s">
-        <v>463</v>
+        <v>152</v>
       </c>
       <c r="E76" t="s">
-        <v>441</v>
+        <v>282</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
       <c r="G76">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H76">
         <v>2</v>
       </c>
       <c r="K76">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>232361</v>
+        <v>232360</v>
       </c>
       <c r="B77">
-        <v>30811</v>
+        <v>30810</v>
       </c>
       <c r="C77" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D77" t="s">
-        <v>23</v>
+        <v>463</v>
       </c>
       <c r="E77" t="s">
-        <v>282</v>
+        <v>441</v>
       </c>
       <c r="F77">
         <v>1</v>
       </c>
       <c r="G77">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H77">
         <v>2</v>
       </c>
       <c r="K77">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>232362</v>
+        <v>232361</v>
       </c>
       <c r="B78">
-        <v>30812</v>
+        <v>30811</v>
       </c>
       <c r="C78" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D78" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="E78" t="s">
-        <v>73</v>
+        <v>282</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -13619,24 +13606,24 @@
         <v>2</v>
       </c>
       <c r="K78">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>232363</v>
+        <v>232362</v>
       </c>
       <c r="B79">
-        <v>30813</v>
+        <v>30812</v>
       </c>
       <c r="C79" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D79" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="E79" t="s">
-        <v>208</v>
+        <v>73</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -13648,53 +13635,53 @@
         <v>2</v>
       </c>
       <c r="K79">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>232364</v>
+        <v>232363</v>
       </c>
       <c r="B80">
-        <v>30814</v>
+        <v>30813</v>
       </c>
       <c r="C80" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D80" t="s">
-        <v>237</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>47</v>
+        <v>208</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H80">
         <v>2</v>
       </c>
       <c r="K80">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>232365</v>
+        <v>232364</v>
       </c>
       <c r="B81">
-        <v>30815</v>
+        <v>30814</v>
       </c>
       <c r="C81" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D81" t="s">
-        <v>504</v>
+        <v>237</v>
       </c>
       <c r="E81" t="s">
-        <v>556</v>
+        <v>47</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -13706,24 +13693,24 @@
         <v>2</v>
       </c>
       <c r="K81">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>232366</v>
+        <v>232365</v>
       </c>
       <c r="B82">
-        <v>30816</v>
+        <v>30815</v>
       </c>
       <c r="C82" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D82" t="s">
-        <v>97</v>
+        <v>504</v>
       </c>
       <c r="E82" t="s">
-        <v>143</v>
+        <v>556</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -13735,24 +13722,24 @@
         <v>2</v>
       </c>
       <c r="K82">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>232367</v>
+        <v>232366</v>
       </c>
       <c r="B83">
-        <v>30817</v>
+        <v>30816</v>
       </c>
       <c r="C83" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D83" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E83" t="s">
-        <v>559</v>
+        <v>143</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -13764,24 +13751,24 @@
         <v>2</v>
       </c>
       <c r="K83">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>232368</v>
+        <v>232367</v>
       </c>
       <c r="B84">
-        <v>30818</v>
+        <v>30817</v>
       </c>
       <c r="C84" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D84" t="s">
-        <v>561</v>
+        <v>110</v>
       </c>
       <c r="E84" t="s">
-        <v>205</v>
+        <v>559</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -13793,24 +13780,24 @@
         <v>2</v>
       </c>
       <c r="K84">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>232369</v>
+        <v>232368</v>
       </c>
       <c r="B85">
-        <v>30819</v>
+        <v>30818</v>
       </c>
       <c r="C85" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D85" t="s">
-        <v>75</v>
+        <v>561</v>
       </c>
       <c r="E85" t="s">
-        <v>101</v>
+        <v>205</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -13822,24 +13809,24 @@
         <v>2</v>
       </c>
       <c r="K85">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>232370</v>
+        <v>232369</v>
       </c>
       <c r="B86">
-        <v>30820</v>
+        <v>30819</v>
       </c>
       <c r="C86" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D86" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="E86" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -13851,35 +13838,64 @@
         <v>2</v>
       </c>
       <c r="K86">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>232371</v>
+        <v>232370</v>
       </c>
       <c r="B87">
-        <v>30821</v>
+        <v>30820</v>
       </c>
       <c r="C87" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D87" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E87" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="F87">
         <v>1</v>
       </c>
       <c r="G87">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H87">
         <v>2</v>
       </c>
       <c r="K87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>232371</v>
+      </c>
+      <c r="B88">
+        <v>30821</v>
+      </c>
+      <c r="C88" t="s">
+        <v>564</v>
+      </c>
+      <c r="D88" t="s">
+        <v>41</v>
+      </c>
+      <c r="E88" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>232</v>
+      </c>
+      <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="K88">
         <v>87</v>
       </c>
     </row>
